--- a/biology/Biologie cellulaire et moléculaire/454_Life_Sciences/454_Life_Sciences.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/454_Life_Sciences/454_Life_Sciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 454 Life Sciences est une société  basée à Branford dans le Connecticut aux États-Unis, spécialisée dans la fabrication de séquenceur de gènes à haut débit. La société fut rachetée par Roche en 2007 et est maintenant une filiale de celle-ci.
@@ -513,7 +525,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La technique employée est une sorte de séquençage en temps réel. Lors de la synthèse d'un nouveau brin d'ADN, il y a lecture de la fluorescence apportée par le nouveau nucléotide.
 </t>
@@ -544,7 +558,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La société produit le GS Titanium[Quoi ?] capable de séquencer jusqu'à 500 mégabases par cycle de mesure (run) de 4-5 heures.
 La technique utilisée permet de séquencer de grandes quantités d'ADN à moindre coût en comparaison avec la méthode de Sanger. Les séquences riches en GC ne sont pas plus un problème, ni l'impossibilité de cloner certains fragments.
